--- a/SVN提交/问题清单/1.iDoc Cloud系统问题清单-2019年2月27日.xlsx
+++ b/SVN提交/问题清单/1.iDoc Cloud系统问题清单-2019年2月27日.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="9495"/>
+    <workbookView windowWidth="23445" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="问题清单" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>序号</t>
   </si>
@@ -148,12 +148,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -189,45 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,44 +258,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,36 +279,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,22 +325,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -363,6 +336,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -385,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,30 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -634,21 +590,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -659,6 +600,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +633,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -694,58 +674,61 @@
   </borders>
   <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,289 +737,286 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,24 +1086,24 @@
     <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="常规 5 3 2 4" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="常规 12 2 2" xfId="17"/>
-    <cellStyle name="常规 5 2 4" xfId="18"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="14"/>
+    <cellStyle name="常规 5 3 2 4" xfId="15"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="常规 5 2 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="常规 12 2 2" xfId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
     <cellStyle name="标题" xfId="21" builtinId="15"/>
     <cellStyle name="常规 5 2" xfId="22"/>
     <cellStyle name="常规 12" xfId="23"/>
     <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
     <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="26"/>
-    <cellStyle name="标题 2" xfId="27" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="27"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="29"/>
-    <cellStyle name="标题 3" xfId="30" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="30" builtinId="32"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="31" builtinId="44"/>
     <cellStyle name="输出" xfId="32" builtinId="21"/>
     <cellStyle name="计算" xfId="33" builtinId="22"/>
@@ -1160,12 +1140,12 @@
     <cellStyle name="常规 2" xfId="64"/>
     <cellStyle name="常规 12 3" xfId="65"/>
     <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="常规 5 3 2 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="常规 5 3 2 2 2" xfId="69"/>
-    <cellStyle name="常规 4 2" xfId="70"/>
-    <cellStyle name="常规 5 3 2 3" xfId="71"/>
-    <cellStyle name="常规 5" xfId="72"/>
+    <cellStyle name="常规 4" xfId="67"/>
+    <cellStyle name="常规 5 3 2 2" xfId="68"/>
+    <cellStyle name="常规 4 2" xfId="69"/>
+    <cellStyle name="常规 5 3 2 2 2" xfId="70"/>
+    <cellStyle name="常规 5" xfId="71"/>
+    <cellStyle name="常规 5 3 2 3" xfId="72"/>
     <cellStyle name="常规 5 2 2 2" xfId="73"/>
     <cellStyle name="常规 5 2 2 2 2" xfId="74"/>
     <cellStyle name="常规 5 2 2 2 2 2" xfId="75"/>
@@ -1199,8 +1179,8 @@
     <cellStyle name="常规 5 3 6" xfId="103"/>
     <cellStyle name="常规 5 4" xfId="104"/>
     <cellStyle name="常规 5 4 2" xfId="105"/>
-    <cellStyle name="常规 5 8" xfId="106"/>
-    <cellStyle name="常规 5 4 2 2" xfId="107"/>
+    <cellStyle name="常规 5 4 2 2" xfId="106"/>
+    <cellStyle name="常规 5 8" xfId="107"/>
     <cellStyle name="常规 5 4 2 3" xfId="108"/>
     <cellStyle name="常规 5 4 3" xfId="109"/>
     <cellStyle name="常规 5 4 4" xfId="110"/>
@@ -1703,13 +1683,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M190" sqref="M190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
@@ -1720,8 +1700,7 @@
     <col min="7" max="7" width="29" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="9" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="12" width="10" customWidth="1"/>
+    <col min="10" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1963,6 +1942,564 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:7">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="7:7">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="7:7">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="7:7">
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="7:7">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="7:7">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="7:7">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="7:7">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="7:7">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="7:7">
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="7:7">
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="7:7">
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="7:7">
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="7:7">
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="7:7">
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="7:7">
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="7:7">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="7:7">
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="7:7">
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="7:7">
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="7:7">
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="7:7">
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="7:7">
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="7:7">
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="7:7">
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="7:7">
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="7:7">
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="7:7">
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="7:7">
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="7:7">
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="7:7">
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="7:7">
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="7:7">
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="7:7">
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="7:7">
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="7:7">
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="7:7">
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="7:7">
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="7:7">
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="7:7">
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="7:7">
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="7:7">
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="7:7">
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="7:7">
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="7:7">
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="7:7">
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="7:7">
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="7:7">
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="7:7">
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="7:7">
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="7:7">
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="7:7">
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="7:7">
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="7:7">
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="7:7">
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="7:7">
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="7:7">
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="7:7">
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="7:7">
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="7:7">
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="7:7">
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="7:7">
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146"/>
+    </row>
+    <row r="147" spans="7:7">
+      <c r="G147"/>
+    </row>
+    <row r="148" spans="7:7">
+      <c r="G148"/>
+    </row>
+    <row r="149" spans="7:7">
+      <c r="G149"/>
+    </row>
+    <row r="150" spans="7:7">
+      <c r="G150"/>
+    </row>
+    <row r="151" spans="7:7">
+      <c r="G151"/>
+    </row>
+    <row r="152" spans="7:7">
+      <c r="G152"/>
+    </row>
+    <row r="153" spans="7:7">
+      <c r="G153"/>
+    </row>
+    <row r="154" spans="7:7">
+      <c r="G154"/>
+    </row>
+    <row r="155" spans="7:7">
+      <c r="G155"/>
+    </row>
+    <row r="156" spans="7:7">
+      <c r="G156"/>
+    </row>
+    <row r="157" spans="7:7">
+      <c r="G157"/>
+    </row>
+    <row r="158" spans="7:7">
+      <c r="G158"/>
+    </row>
+    <row r="159" spans="7:7">
+      <c r="G159"/>
+    </row>
+    <row r="160" spans="7:7">
+      <c r="G160"/>
+    </row>
+    <row r="161" spans="7:7">
+      <c r="G161"/>
+    </row>
+    <row r="162" spans="7:7">
+      <c r="G162"/>
+    </row>
+    <row r="163" spans="7:7">
+      <c r="G163"/>
+    </row>
+    <row r="164" spans="7:7">
+      <c r="G164"/>
+    </row>
+    <row r="165" spans="7:7">
+      <c r="G165"/>
+    </row>
+    <row r="166" spans="7:7">
+      <c r="G166"/>
+    </row>
+    <row r="167" spans="7:7">
+      <c r="G167"/>
+    </row>
+    <row r="168" spans="7:7">
+      <c r="G168"/>
+    </row>
+    <row r="169" spans="7:7">
+      <c r="G169"/>
+    </row>
+    <row r="170" spans="7:7">
+      <c r="G170"/>
+    </row>
+    <row r="171" spans="7:7">
+      <c r="G171"/>
+    </row>
+    <row r="172" spans="7:7">
+      <c r="G172"/>
+    </row>
+    <row r="173" spans="7:7">
+      <c r="G173"/>
+    </row>
+    <row r="174" spans="7:7">
+      <c r="G174"/>
+    </row>
+    <row r="175" spans="7:7">
+      <c r="G175"/>
+    </row>
+    <row r="176" spans="7:7">
+      <c r="G176"/>
+    </row>
+    <row r="177" spans="7:7">
+      <c r="G177"/>
+    </row>
+    <row r="178" spans="7:7">
+      <c r="G178"/>
+    </row>
+    <row r="179" spans="7:7">
+      <c r="G179"/>
+    </row>
+    <row r="180" spans="7:7">
+      <c r="G180"/>
+    </row>
+    <row r="181" spans="7:7">
+      <c r="G181"/>
+    </row>
+    <row r="182" spans="7:7">
+      <c r="G182"/>
+    </row>
+    <row r="183" spans="7:7">
+      <c r="G183"/>
+    </row>
+    <row r="184" spans="7:7">
+      <c r="G184"/>
+    </row>
+    <row r="185" spans="7:7">
+      <c r="G185"/>
+    </row>
+    <row r="186" spans="7:7">
+      <c r="G186"/>
+    </row>
+    <row r="187" spans="7:7">
+      <c r="G187"/>
+    </row>
+    <row r="188" spans="7:7">
+      <c r="G188"/>
+    </row>
+    <row r="189" spans="7:7">
+      <c r="G189"/>
+    </row>
+    <row r="190" spans="7:7">
+      <c r="G190"/>
+    </row>
+    <row r="191" spans="7:7">
+      <c r="G191"/>
+    </row>
+    <row r="192" spans="7:7">
+      <c r="G192"/>
+    </row>
+    <row r="193" spans="7:7">
+      <c r="G193"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
